--- a/data/Devolved_rights.xlsx
+++ b/data/Devolved_rights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albaa\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF820469-9136-4FDF-A162-68F59891E1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2772F88-EC54-4FCB-A8FF-24209E2A3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -437,19 +437,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5727807.7681679698</v>
+        <v>5174698.76</v>
       </c>
       <c r="C2">
-        <v>45.332966853567846</v>
+        <v>47.583042495791581</v>
       </c>
       <c r="D2">
-        <v>22.583562806299238</v>
+        <v>20.180305916010465</v>
       </c>
       <c r="E2">
-        <v>25.263628973058871</v>
+        <v>27.878391900826323</v>
       </c>
       <c r="F2">
-        <v>6.7968133596166354</v>
+        <v>4.3309344252533837</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -457,19 +457,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4735842.7704514004</v>
+        <v>4681825.0299999993</v>
       </c>
       <c r="C3">
-        <v>72.185763045768795</v>
+        <v>72.227388215744583</v>
       </c>
       <c r="D3">
-        <v>7.7446635830610679</v>
+        <v>7.7175092551461741</v>
       </c>
       <c r="E3">
-        <v>15.938825651470099</v>
+        <v>15.972839548854308</v>
       </c>
       <c r="F3">
-        <v>0.10728482581181038</v>
+        <v>0.10160097759996811</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -477,19 +477,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>17822168.628830966</v>
+        <v>17320281.620000001</v>
       </c>
       <c r="C4">
-        <v>67.49201729108151</v>
+        <v>67.408477564927722</v>
       </c>
       <c r="D4">
-        <v>11.280823602394248</v>
+        <v>10.837530538952056</v>
       </c>
       <c r="E4">
-        <v>19.966136034469848</v>
+        <v>20.460825336164479</v>
       </c>
       <c r="F4">
-        <v>1.2610230720544011</v>
+        <v>1.293166559955738</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -497,19 +497,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>471444.78644499998</v>
+        <v>452580.81</v>
       </c>
       <c r="C5">
-        <v>24.22379680898711</v>
+        <v>21.969298698281083</v>
       </c>
       <c r="D5">
-        <v>59.928753639311026</v>
+        <v>62.021233290912178</v>
       </c>
       <c r="E5">
-        <v>9.3672203275392416</v>
+        <v>9.7204298167215697</v>
       </c>
       <c r="F5">
-        <v>6.4802292241626329</v>
+        <v>6.2890381940851627</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -517,16 +517,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>32671.149999999998</v>
+        <v>75082.509999999995</v>
       </c>
       <c r="C6">
-        <v>64.898670539604524</v>
+        <v>85.24282153060679</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35.101329460395483</v>
+        <v>14.757178469393207</v>
       </c>
       <c r="F6">
         <v>0</v>
